--- a/data/website_df.xlsx
+++ b/data/website_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S457"/>
+  <dimension ref="A1:S495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32265,7 +32265,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -32281,24 +32281,24 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Dmitry Popko</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr">
         <is>
-          <t>Henri Laaksonen</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>switzerland</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32313,27 +32313,27 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>Astana</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard</t>
+          <t xml:space="preserve"> Clay</t>
         </is>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>GreenSet Grand Prix Cup</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -32341,16 +32341,12 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S378" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="S378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -32366,24 +32362,24 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Viktor Galovic</t>
         </is>
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Adrian Bodmer</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>switzerland</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32398,27 +32394,27 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>Astana</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard</t>
+          <t xml:space="preserve"> Clay</t>
         </is>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>GreenSet Grand Prix Cup</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -32426,16 +32422,12 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S379" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="S379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -32451,32 +32443,32 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Timur Khabibulin</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Aleksandr Nedovyesov</t>
+          <t>Ivan Dodig</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Marc Andrea Huesler</t>
+          <t>Daniel Nestor</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Luca Margaroli</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>switzerland</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32491,27 +32483,27 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>Astana</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard</t>
+          <t xml:space="preserve"> Clay</t>
         </is>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>GreenSet Grand Prix Cup</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -32519,16 +32511,12 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S380" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="S380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -32544,24 +32532,24 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Roman Hassanov</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr">
         <is>
-          <t>Marc Andrea Huesler</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>switzerland</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32576,27 +32564,27 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>Astana</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard</t>
+          <t xml:space="preserve"> Clay</t>
         </is>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>GreenSet Grand Prix Cup</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -32604,16 +32592,12 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S381" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="S381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -32622,31 +32606,31 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D382" t="n">
         <v>2018</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Dmitry Popko</t>
+          <t>Laslo Djere</t>
         </is>
       </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr">
         <is>
-          <t>Adrian Bodmer</t>
+          <t>Sam Querrey</t>
         </is>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>switzerland</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -32661,27 +32645,27 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre</t>
+          <t xml:space="preserve"> Sportski Centar Cair</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>Astana</t>
+          <t>Nis</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard</t>
+          <t xml:space="preserve"> Clay</t>
         </is>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>GreenSet Grand Prix Cup</t>
+          <t>Red Clay</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -32689,16 +32673,12 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S382" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="S382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -32707,31 +32687,31 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D383" t="n">
         <v>2018</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Dusan Lajovic</t>
         </is>
       </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
+          <t>John Isner</t>
         </is>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -32746,17 +32726,17 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
+          <t xml:space="preserve"> Sportski Centar Cair</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Nis</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
@@ -32766,7 +32746,7 @@
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Red Clay</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -32779,7 +32759,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -32788,31 +32768,39 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D384" t="n">
         <v>2018</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Viktor Galovic</t>
-        </is>
-      </c>
-      <c r="F384" t="inlineStr"/>
+          <t>Nikola Milojevic</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Miljan Zekic</t>
+        </is>
+      </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
-        </is>
-      </c>
-      <c r="H384" t="inlineStr"/>
+          <t>Ryan Harrison</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Steve Johnson</t>
+        </is>
+      </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -32827,17 +32815,17 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
+          <t xml:space="preserve"> Sportski Centar Cair</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Nis</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -32847,7 +32835,7 @@
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Red Clay</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -32860,7 +32848,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -32869,39 +32857,31 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D385" t="n">
         <v>2018</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
+          <t>Pedja Krstin</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Daniel Nestor</t>
-        </is>
-      </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>Vasek Pospisil</t>
-        </is>
-      </c>
+          <t>Steve Johnson</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -32916,17 +32896,17 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
+          <t xml:space="preserve"> Sportski Centar Cair</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Nis</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
@@ -32936,7 +32916,7 @@
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Red Clay</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -32949,7 +32929,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -32958,31 +32938,31 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D386" t="n">
         <v>2018</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Marton Fucsovics</t>
         </is>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>belgium</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>hungary</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -32997,27 +32977,27 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Liège</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay</t>
+          <t xml:space="preserve"> Hard</t>
         </is>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Acrylic</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -33025,7 +33005,11 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S386" t="inlineStr"/>
+      <c r="S386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -33039,20 +33023,20 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D387" t="n">
         <v>2018</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
+          <t>David Goffin</t>
         </is>
       </c>
       <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr">
         <is>
-          <t>Marton Fucsovics</t>
+          <t>Attila Balazs</t>
         </is>
       </c>
       <c r="H387" t="inlineStr"/>
@@ -33124,23 +33108,31 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D388" t="n">
         <v>2018</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>David Goffin</t>
-        </is>
-      </c>
-      <c r="F388" t="inlineStr"/>
+          <t>Ruben Bemelmans</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Joris De Loore</t>
+        </is>
+      </c>
       <c r="G388" t="inlineStr">
         <is>
           <t>Attila Balazs</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr"/>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Marton Fucsovics</t>
+        </is>
+      </c>
       <c r="I388" t="inlineStr">
         <is>
           <t>belgium</t>
@@ -33209,31 +33201,23 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D389" t="n">
         <v>2018</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>Joris De Loore</t>
-        </is>
-      </c>
+          <t>David Goffin</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Attila Balazs</t>
-        </is>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
           <t>Marton Fucsovics</t>
         </is>
       </c>
+      <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
           <t>belgium</t>
@@ -33302,20 +33286,20 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D390" t="n">
         <v>2018</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>David Goffin</t>
+          <t>Julien Cagnina</t>
         </is>
       </c>
       <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Marton Fucsovics</t>
+          <t>Zsombor Piros</t>
         </is>
       </c>
       <c r="H390" t="inlineStr"/>
@@ -33378,87 +33362,83 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D391" t="n">
         <v>2018</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Julien Cagnina</t>
+          <t>Andreas Seppi</t>
         </is>
       </c>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr">
         <is>
-          <t>Zsombor Piros</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>belgium</t>
+          <t>italy</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>hungary</t>
+          <t>france</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>02/02/2018</t>
+          <t>06/04/2018</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>04/02/2018</t>
+          <t>08/04/2018</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD</t>
         </is>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>Liège</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard</t>
+          <t xml:space="preserve"> Clay</t>
         </is>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>Acrylic</t>
+          <t>Red Clay</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Indoor</t>
-        </is>
-      </c>
-      <c r="S391" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="S391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -33472,20 +33452,20 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D392" t="n">
         <v>2018</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Andreas Seppi</t>
+          <t>Fabio Fognini</t>
         </is>
       </c>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Jeremy Chardy</t>
         </is>
       </c>
       <c r="H392" t="inlineStr"/>
@@ -33553,23 +33533,31 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D393" t="n">
         <v>2018</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
+          <t>Simone Bolelli</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
           <t>Fabio Fognini</t>
         </is>
       </c>
-      <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
         <is>
-          <t>Jeremy Chardy</t>
-        </is>
-      </c>
-      <c r="H393" t="inlineStr"/>
+          <t>Pierre Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="I393" t="inlineStr">
         <is>
           <t>italy</t>
@@ -33634,31 +33622,23 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D394" t="n">
         <v>2018</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Simone Bolelli</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
           <t>Fabio Fognini</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr">
         <is>
-          <t>Pierre Hugues Herbert</t>
-        </is>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Lucas Pouille</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
           <t>italy</t>
@@ -33714,7 +33694,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -33723,31 +33703,31 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D395" t="n">
         <v>2018</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>David Ferrer</t>
         </is>
       </c>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Alexander Zverev</t>
         </is>
       </c>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>italy</t>
+          <t>spain</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>france</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -33762,17 +33742,17 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -33804,20 +33784,20 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="n">
         <v>2018</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>David Ferrer</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr">
         <is>
-          <t>Alexander Zverev</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="H396" t="inlineStr"/>
@@ -33885,23 +33865,31 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D397" t="n">
         <v>2018</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
-        </is>
-      </c>
-      <c r="F397" t="inlineStr"/>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Marc Lopez</t>
+        </is>
+      </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Philipp Kohlschreiber</t>
-        </is>
-      </c>
-      <c r="H397" t="inlineStr"/>
+          <t>Tim Puetz</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Jan Lennard Struff</t>
+        </is>
+      </c>
       <c r="I397" t="inlineStr">
         <is>
           <t>spain</t>
@@ -33966,31 +33954,23 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D398" t="n">
         <v>2018</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>Marc Lopez</t>
-        </is>
-      </c>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>Jan Lennard Struff</t>
-        </is>
-      </c>
+          <t>Alexander Zverev</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
           <t>spain</t>
@@ -34055,20 +34035,20 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D399" t="n">
         <v>2018</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>David Ferrer</t>
         </is>
       </c>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr">
         <is>
-          <t>Alexander Zverev</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="H399" t="inlineStr"/>
@@ -34127,7 +34107,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -34136,31 +34116,31 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D400" t="n">
         <v>2018</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>David Ferrer</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr">
         <is>
-          <t>Philipp Kohlschreiber</t>
+          <t>Dmitry Popko</t>
         </is>
       </c>
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>spain</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>germany</t>
+          <t>kazakhstan</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34175,17 +34155,17 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia</t>
+          <t xml:space="preserve"> Varazdin Arena</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Varazdin</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -34200,7 +34180,7 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Indoor</t>
         </is>
       </c>
       <c r="S400" t="inlineStr"/>
@@ -34217,20 +34197,20 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D401" t="n">
         <v>2018</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Dmitry Popko</t>
+          <t>Mikhail Kukushkin</t>
         </is>
       </c>
       <c r="H401" t="inlineStr"/>
@@ -34298,23 +34278,31 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D402" t="n">
         <v>2018</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
-        </is>
-      </c>
-      <c r="F402" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Nikola Mektic</t>
+        </is>
+      </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
-        </is>
-      </c>
-      <c r="H402" t="inlineStr"/>
+          <t>Timur Khabibulin</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Aleksandr Nedovyesov</t>
+        </is>
+      </c>
       <c r="I402" t="inlineStr">
         <is>
           <t>croatia</t>
@@ -34379,31 +34367,23 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D403" t="n">
         <v>2018</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>Nikola Mektic</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Timur Khabibulin</t>
-        </is>
-      </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>Aleksandr Nedovyesov</t>
-        </is>
-      </c>
+          <t>Mikhail Kukushkin</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
           <t>croatia</t>
@@ -34459,7 +34439,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -34468,31 +34448,31 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D404" t="n">
         <v>2018</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>John Isner</t>
         </is>
       </c>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Joris De Loore</t>
         </is>
       </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>belgium</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34507,27 +34487,27 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena</t>
+          <t xml:space="preserve"> Curb Event Center</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>Varazdin</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay</t>
+          <t xml:space="preserve"> Hard</t>
         </is>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>Red Clay</t>
+          <t>Premier</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -34535,7 +34515,11 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S404" t="inlineStr"/>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -34549,20 +34533,20 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405" t="n">
         <v>2018</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>John Isner</t>
+          <t>Sam Querrey</t>
         </is>
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Joris De Loore</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="H405" t="inlineStr"/>
@@ -34634,23 +34618,31 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D406" t="n">
         <v>2018</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Sam Querrey</t>
-        </is>
-      </c>
-      <c r="F406" t="inlineStr"/>
+          <t>Ryan Harrison</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Jack Sock</t>
+        </is>
+      </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
-        </is>
-      </c>
-      <c r="H406" t="inlineStr"/>
+          <t>Sander Gille</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Joran Vliegen</t>
+        </is>
+      </c>
       <c r="I406" t="inlineStr">
         <is>
           <t>usa</t>
@@ -34719,7 +34711,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D407" t="n">
         <v>2018</v>
@@ -34729,21 +34721,13 @@
           <t>Ryan Harrison</t>
         </is>
       </c>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>Jack Sock</t>
-        </is>
-      </c>
+      <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Sander Gille</t>
-        </is>
-      </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>Joran Vliegen</t>
-        </is>
-      </c>
+          <t>Ruben Bemelmans</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
           <t>usa</t>
@@ -34803,65 +34787,65 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D408" t="n">
         <v>2018</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Ryan Harrison</t>
+          <t>Benoit Paire</t>
         </is>
       </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
+          <t>Pablo Carreno Busta</t>
         </is>
       </c>
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>france</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>belgium</t>
+          <t>spain</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>06/04/2018</t>
+          <t>14/09/2018</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>08/04/2018</t>
+          <t>16/09/2018</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
@@ -34871,7 +34855,7 @@
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>Premier</t>
+          <t>Rebound Ace Synpave</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -34879,11 +34863,7 @@
           <t>Indoor</t>
         </is>
       </c>
-      <c r="S408" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="S408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -34897,20 +34877,20 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D409" t="n">
         <v>2018</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Benoit Paire</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr">
         <is>
-          <t>Pablo Carreno Busta</t>
+          <t>Roberto Bautista Agut</t>
         </is>
       </c>
       <c r="H409" t="inlineStr"/>
@@ -34978,23 +34958,31 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D410" t="n">
         <v>2018</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr"/>
+          <t>Julien Benneteau</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>Roberto Bautista Agut</t>
-        </is>
-      </c>
-      <c r="H410" t="inlineStr"/>
+          <t>Marcel Granollers</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
       <c r="I410" t="inlineStr">
         <is>
           <t>france</t>
@@ -35059,31 +35047,23 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D411" t="n">
         <v>2018</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Julien Benneteau</t>
-        </is>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Richard Gasquet</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
-        </is>
-      </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
+          <t>Albert Ramos</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
           <t>france</t>
@@ -35148,20 +35128,20 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D412" t="n">
         <v>2018</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Richard Gasquet</t>
+          <t>Nicolas Mahut</t>
         </is>
       </c>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr">
         <is>
-          <t>Albert Ramos</t>
+          <t>Marcel Granollers</t>
         </is>
       </c>
       <c r="H412" t="inlineStr"/>
@@ -35220,7 +35200,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -35229,31 +35209,31 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D413" t="n">
         <v>2018</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Nicolas Mahut</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
+          <t>Steve Johnson</t>
         </is>
       </c>
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>france</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>spain</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35268,32 +35248,32 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy</t>
+          <t xml:space="preserve"> Sportski centar Visnjik</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Zadar</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard</t>
+          <t xml:space="preserve"> Clay</t>
         </is>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>Rebound Ace Synpave</t>
+          <t>Red Clay</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Indoor</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="S413" t="inlineStr"/>
@@ -35310,20 +35290,20 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D414" t="n">
         <v>2018</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Steve Johnson</t>
+          <t>Franklin Tiafoe</t>
         </is>
       </c>
       <c r="H414" t="inlineStr"/>
@@ -35391,23 +35371,31 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D415" t="n">
         <v>2018</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="F415" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
-        </is>
-      </c>
-      <c r="H415" t="inlineStr"/>
+          <t>Mike Bryan</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Ryan Harrison</t>
+        </is>
+      </c>
       <c r="I415" t="inlineStr">
         <is>
           <t>croatia</t>
@@ -35472,31 +35460,23 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D416" t="n">
         <v>2018</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Mike Bryan</t>
-        </is>
-      </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>Ryan Harrison</t>
-        </is>
-      </c>
+          <t>Sam Querrey</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
           <t>croatia</t>
@@ -35561,20 +35541,20 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D417" t="n">
         <v>2018</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Sam Querrey</t>
+          <t>Franklin Tiafoe</t>
         </is>
       </c>
       <c r="H417" t="inlineStr"/>
@@ -35638,60 +35618,60 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D418" t="n">
         <v>2018</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Jeremy Chardy</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
           <t>croatia</t>
         </is>
       </c>
-      <c r="J418" t="inlineStr">
-        <is>
-          <t>usa</t>
-        </is>
-      </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>14/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>16/09/2018</t>
+          <t>25/11/2018</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>Zadar</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="P418" t="inlineStr">
@@ -35706,7 +35686,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Indoor</t>
         </is>
       </c>
       <c r="S418" t="inlineStr"/>
@@ -35723,20 +35703,20 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D419" t="n">
         <v>2018</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jeremy Chardy</t>
+          <t>Jo-Wilfried Tsonga</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="H419" t="inlineStr"/>
@@ -35804,23 +35784,31 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D420" t="n">
         <v>2018</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Jo-Wilfried Tsonga</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr"/>
+          <t>Pierre Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="H420" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="I420" t="inlineStr">
         <is>
           <t>france</t>
@@ -35885,31 +35873,23 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D421" t="n">
         <v>2018</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Pierre Hugues Herbert</t>
-        </is>
-      </c>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Lucas Pouille</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
           <t>france</t>
@@ -35965,75 +35945,75 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Dunlop ATP</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D422" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Filip Krajinovic</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Andrey Rublev</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>france</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>russia</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>25/11/2018</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy</t>
+          <t xml:space="preserve"> Caja Magica</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="P422" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay</t>
+          <t xml:space="preserve"> Hard</t>
         </is>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>Red Clay</t>
+          <t>GreenSet Grand Prix Cup</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -36055,20 +36035,20 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D423" t="n">
         <v>2019</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Filip Krajinovic</t>
+          <t>Novak Djokovic</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Karen Khachanov</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -36136,7 +36116,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D424" t="n">
         <v>2019</v>
@@ -36146,13 +36126,21 @@
           <t>Novak Djokovic</t>
         </is>
       </c>
-      <c r="F424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Viktor Troicki</t>
+        </is>
+      </c>
       <c r="G424" t="inlineStr">
         <is>
           <t>Karen Khachanov</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr"/>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
       <c r="I424" t="inlineStr">
         <is>
           <t>serbia</t>
@@ -36217,49 +36205,41 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D425" t="n">
         <v>2019</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>Viktor Troicki</t>
-        </is>
-      </c>
+          <t>John Millman</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
-        </is>
-      </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>Andrey Rublev</t>
-        </is>
-      </c>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>serbia</t>
+          <t>australia</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>russia</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
@@ -36306,41 +36286,41 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D426" t="n">
         <v>2019</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Kyle Edmund</t>
+          <t>Alex De Minaur</t>
         </is>
       </c>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Philipp Kohlschreiber</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>great britain</t>
+          <t>australia</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>germany</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
@@ -36387,41 +36367,49 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D427" t="n">
         <v>2019</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Daniel Evans</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr"/>
+          <t>John Peers</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Jordan Thompson</t>
+        </is>
+      </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Jan Lennard Struff</t>
-        </is>
-      </c>
-      <c r="H427" t="inlineStr"/>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>great britain</t>
+          <t>australia</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>germany</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
@@ -36464,7 +36452,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -36475,34 +36463,34 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Felix Auger Aliassime</t>
+          <t>Kyle Edmund</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Roberto Bautista Agut</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>great britain</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>spain</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>24/11/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>24/11/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -36545,7 +36533,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -36556,34 +36544,34 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>Jan Lennard Struff</t>
         </is>
       </c>
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>great britain</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>spain</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>24/11/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>24/11/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
@@ -36619,7 +36607,11 @@
       <c r="S429" t="inlineStr"/>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr"/>
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>FINALS  QUARTER-FINAL</t>
@@ -36629,58 +36621,78 @@
         <v>1</v>
       </c>
       <c r="D430" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Guido Pella</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>Elias Ymer</t>
+          <t>Pablo Carreno Busta</t>
         </is>
       </c>
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>russian tennis federation (rtf)</t>
+          <t>argentina</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>sweden</t>
+          <t>spain</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>02/12/2021</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>02/12/2021</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N430" t="inlineStr"/>
-      <c r="O430" t="inlineStr"/>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="P430" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q430" t="inlineStr"/>
-      <c r="R430" t="inlineStr"/>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
       <c r="S430" t="inlineStr"/>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr"/>
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>FINALS  QUARTER-FINAL</t>
@@ -36690,634 +36702,830 @@
         <v>2</v>
       </c>
       <c r="D431" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Daniil Medvedev</t>
+          <t>Diego Schwartzman</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>Mikael Ymer</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>russian tennis federation (rtf)</t>
+          <t>argentina</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>sweden</t>
+          <t>spain</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>02/12/2021</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>02/12/2021</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N431" t="inlineStr"/>
-      <c r="O431" t="inlineStr"/>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="P431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q431" t="inlineStr"/>
-      <c r="R431" t="inlineStr"/>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
       <c r="S431" t="inlineStr"/>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr"/>
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C432" t="n">
+        <v>3</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Maximo Gonzalez</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Leonardo Mayer</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Marcel Granollers</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>22/11/2019</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>22/11/2019</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
+      <c r="S432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
         <v>1</v>
       </c>
-      <c r="D432" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E432" t="inlineStr">
-        <is>
-          <t>Daniel Evans</t>
-        </is>
-      </c>
-      <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>Peter Gojowczyk</t>
-        </is>
-      </c>
-      <c r="H432" t="inlineStr"/>
-      <c r="I432" t="inlineStr">
-        <is>
-          <t>great britain</t>
-        </is>
-      </c>
-      <c r="J432" t="inlineStr">
-        <is>
-          <t>germany</t>
-        </is>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>30/11/2021</t>
-        </is>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>30/11/2021</t>
-        </is>
-      </c>
-      <c r="M432" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N432" t="inlineStr"/>
-      <c r="O432" t="inlineStr"/>
-      <c r="P432" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q432" t="inlineStr"/>
-      <c r="R432" t="inlineStr"/>
-      <c r="S432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr"/>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>FINALS  QUARTER-FINAL</t>
-        </is>
-      </c>
-      <c r="C433" t="n">
-        <v>2</v>
-      </c>
       <c r="D433" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Cameron Norrie</t>
+          <t>Andrey Rublev</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>Jan Lennard Struff</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>great britain</t>
+          <t>russia</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>germany</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>30/11/2021</t>
+          <t>23/11/2019</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>30/11/2021</t>
+          <t>23/11/2019</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N433" t="inlineStr"/>
-      <c r="O433" t="inlineStr"/>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q433" t="inlineStr"/>
-      <c r="R433" t="inlineStr"/>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
       <c r="S433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr"/>
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="C434" t="n">
+        <v>2</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Karen Khachanov</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
+      <c r="S434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
         <v>3</v>
       </c>
-      <c r="D434" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>Joe Salisbury</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>Neal Skupski</t>
-        </is>
-      </c>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>Kevin Krawietz</t>
-        </is>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
-      <c r="I434" t="inlineStr">
-        <is>
-          <t>great britain</t>
-        </is>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>germany</t>
-        </is>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>30/11/2021</t>
-        </is>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>30/11/2021</t>
-        </is>
-      </c>
-      <c r="M434" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N434" t="inlineStr"/>
-      <c r="O434" t="inlineStr"/>
-      <c r="P434" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q434" t="inlineStr"/>
-      <c r="R434" t="inlineStr"/>
-      <c r="S434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr"/>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>FINALS  QUARTER-FINAL</t>
-        </is>
-      </c>
-      <c r="C435" t="n">
+      <c r="D435" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Karen Khachanov</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
+      <c r="S435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
         <v>1</v>
       </c>
-      <c r="D435" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E435" t="inlineStr">
-        <is>
-          <t>Lorenzo Sonego</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>Borna Gojo</t>
-        </is>
-      </c>
-      <c r="H435" t="inlineStr"/>
-      <c r="I435" t="inlineStr">
-        <is>
-          <t>italy</t>
-        </is>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>croatia</t>
-        </is>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>29/11/2021</t>
-        </is>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>29/11/2021</t>
-        </is>
-      </c>
-      <c r="M435" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N435" t="inlineStr"/>
-      <c r="O435" t="inlineStr"/>
-      <c r="P435" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q435" t="inlineStr"/>
-      <c r="R435" t="inlineStr"/>
-      <c r="S435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr"/>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>FINALS  QUARTER-FINAL</t>
-        </is>
-      </c>
-      <c r="C436" t="n">
-        <v>2</v>
-      </c>
       <c r="D436" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
+          <t>Kyle Edmund</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Feliciano Lopez</t>
         </is>
       </c>
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>italy</t>
+          <t>great britain</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>spain</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>29/11/2021</t>
+          <t>23/11/2019</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>29/11/2021</t>
+          <t>23/11/2019</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N436" t="inlineStr"/>
-      <c r="O436" t="inlineStr"/>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="P436" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q436" t="inlineStr"/>
-      <c r="R436" t="inlineStr"/>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
       <c r="S436" t="inlineStr"/>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr"/>
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="C437" t="n">
+        <v>2</v>
+      </c>
+      <c r="D437" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Daniel Evans</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>great britain</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
+      <c r="S437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
         <v>3</v>
       </c>
-      <c r="D437" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>Fabio Fognini</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>Jannik Sinner</t>
-        </is>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>Nikola Mektic</t>
-        </is>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
-      <c r="I437" t="inlineStr">
-        <is>
-          <t>italy</t>
-        </is>
-      </c>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>croatia</t>
-        </is>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>29/11/2021</t>
-        </is>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>29/11/2021</t>
-        </is>
-      </c>
-      <c r="M437" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N437" t="inlineStr"/>
-      <c r="O437" t="inlineStr"/>
-      <c r="P437" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q437" t="inlineStr"/>
-      <c r="R437" t="inlineStr"/>
-      <c r="S437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr"/>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>FINALS  QUARTER-FINAL</t>
-        </is>
-      </c>
-      <c r="C438" t="n">
+      <c r="D438" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Jamie Murray</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Neal Skupski</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>great britain</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
+      <c r="S438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
         <v>1</v>
       </c>
-      <c r="D438" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>Miomir Kecmanovic</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>Mikhail Kukushkin</t>
-        </is>
-      </c>
-      <c r="H438" t="inlineStr"/>
-      <c r="I438" t="inlineStr">
-        <is>
-          <t>serbia</t>
-        </is>
-      </c>
-      <c r="J438" t="inlineStr">
-        <is>
-          <t>kazakhstan</t>
-        </is>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>01/12/2021</t>
-        </is>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>01/12/2021</t>
-        </is>
-      </c>
-      <c r="M438" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N438" t="inlineStr"/>
-      <c r="O438" t="inlineStr"/>
-      <c r="P438" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q438" t="inlineStr"/>
-      <c r="R438" t="inlineStr"/>
-      <c r="S438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr"/>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>FINALS  QUARTER-FINAL</t>
-        </is>
-      </c>
-      <c r="C439" t="n">
-        <v>2</v>
-      </c>
       <c r="D439" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Novak Djokovic</t>
+          <t>Felix Auger Aliassime</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>Alexander Bublik</t>
+          <t>Roberto Bautista Agut</t>
         </is>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>serbia</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>spain</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>24/11/2019</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>24/11/2019</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N439" t="inlineStr"/>
-      <c r="O439" t="inlineStr"/>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="P439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q439" t="inlineStr"/>
-      <c r="R439" t="inlineStr"/>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
       <c r="S439" t="inlineStr"/>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr"/>
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>FINALS  QUARTER-FINAL</t>
+          <t>FINALS  FINAL</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D440" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nikola Cacic</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>Andrey Golubev</t>
-        </is>
-      </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>Aleksandr Nedovyesov</t>
-        </is>
-      </c>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>serbia</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>spain</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>24/11/2019</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>24/11/2019</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
-        </is>
-      </c>
-      <c r="N440" t="inlineStr"/>
-      <c r="O440" t="inlineStr"/>
+          <t xml:space="preserve"> Caja Magica</t>
+        </is>
+      </c>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="Q440" t="inlineStr"/>
-      <c r="R440" t="inlineStr"/>
+          <t xml:space="preserve"> Hard</t>
+        </is>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>GreenSet Grand Prix Cup</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>Indoor</t>
+        </is>
+      </c>
       <c r="S440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -37334,7 +37542,7 @@
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Dominik Koepfer</t>
+          <t>Elias Ymer</t>
         </is>
       </c>
       <c r="H441" t="inlineStr"/>
@@ -37345,17 +37553,17 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>germany</t>
+          <t>sweden</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>04/12/2021</t>
+          <t>02/12/2021</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>04/12/2021</t>
+          <t>02/12/2021</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
@@ -37378,7 +37586,7 @@
       <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -37395,7 +37603,7 @@
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr">
         <is>
-          <t>Jan Lennard Struff</t>
+          <t>Mikael Ymer</t>
         </is>
       </c>
       <c r="H442" t="inlineStr"/>
@@ -37406,17 +37614,17 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>germany</t>
+          <t>sweden</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>04/12/2021</t>
+          <t>02/12/2021</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>04/12/2021</t>
+          <t>02/12/2021</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
@@ -37439,38 +37647,30 @@
       <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D443" t="n">
         <v>2021</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Aslan Karatsev</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>Karen Khachanov</t>
-        </is>
-      </c>
+          <t>Daniel Evans</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Kevin Krawietz</t>
-        </is>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
+          <t>Peter Gojowczyk</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>russian tennis federation (rtf)</t>
+          <t>great britain</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -37480,12 +37680,12 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>04/12/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>04/12/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
@@ -37508,45 +37708,45 @@
       <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D444" t="n">
         <v>2021</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Cameron Norrie</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>Borna Gojo</t>
+          <t>Jan Lennard Struff</t>
         </is>
       </c>
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>russian tennis federation (rtf)</t>
+          <t>great britain</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>05/12/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>05/12/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
@@ -37569,45 +37769,53 @@
       <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D445" t="n">
         <v>2021</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Daniil Medvedev</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr"/>
+          <t>Joe Salisbury</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Neal Skupski</t>
+        </is>
+      </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="H445" t="inlineStr"/>
+          <t>Kevin Krawietz</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Tim Puetz</t>
+        </is>
+      </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>russian tennis federation (rtf)</t>
+          <t>great britain</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>croatia</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>05/12/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>05/12/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="M445" t="inlineStr">
@@ -37637,7 +37845,7 @@
         <v>1</v>
       </c>
       <c r="D446" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -37647,7 +37855,7 @@
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
+          <t>Borna Gojo</t>
         </is>
       </c>
       <c r="H446" t="inlineStr"/>
@@ -37658,29 +37866,29 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>29/11/2021</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>29/11/2021</t>
         </is>
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="Q446" t="inlineStr"/>
@@ -37698,17 +37906,17 @@
         <v>2</v>
       </c>
       <c r="D447" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Lorenzo Musetti</t>
+          <t>Jannik Sinner</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Taylor Fritz</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="H447" t="inlineStr"/>
@@ -37719,29 +37927,29 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>29/11/2021</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>29/11/2021</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="Q447" t="inlineStr"/>
@@ -37759,26 +37967,26 @@
         <v>3</v>
       </c>
       <c r="D448" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Simone Bolelli</t>
+          <t>Fabio Fognini</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>Jannik Sinner</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>Tommy Paul</t>
+          <t>Nikola Mektic</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Jack Sock</t>
+          <t>Mate Pavic</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -37788,29 +37996,29 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>29/11/2021</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>29/11/2021</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard, Indoor</t>
+          <t xml:space="preserve"> ,</t>
         </is>
       </c>
       <c r="Q448" t="inlineStr"/>
@@ -37828,7 +38036,7 @@
         <v>1</v>
       </c>
       <c r="D449" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -37838,7 +38046,7 @@
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>Jack Draper</t>
+          <t>Mikhail Kukushkin</t>
         </is>
       </c>
       <c r="H449" t="inlineStr"/>
@@ -37849,22 +38057,22 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>great britain</t>
+          <t>kazakhstan</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N449" t="inlineStr"/>
@@ -37889,7 +38097,7 @@
         <v>2</v>
       </c>
       <c r="D450" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -37899,7 +38107,7 @@
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>Cameron Norrie</t>
+          <t>Alexander Bublik</t>
         </is>
       </c>
       <c r="H450" t="inlineStr"/>
@@ -37910,22 +38118,22 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>great britain</t>
+          <t>kazakhstan</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N450" t="inlineStr"/>
@@ -37943,50 +38151,58 @@
       <c r="A451" t="inlineStr"/>
       <c r="B451" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D451" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Otto Virtanen</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr"/>
+          <t>Nikola Cacic</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>Alexei Popyrin</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr"/>
+          <t>Andrey Golubev</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Aleksandr Nedovyesov</t>
+        </is>
+      </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>finland</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>australia</t>
+          <t>kazakhstan</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N451" t="inlineStr"/>
@@ -38008,46 +38224,46 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D452" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Emil Ruusuvuori</t>
+          <t>Andrey Rublev</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>Alex De Minaur</t>
+          <t>Dominik Koepfer</t>
         </is>
       </c>
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>finland</t>
+          <t>russian tennis federation (rtf)</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>australia</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>04/12/2021</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>04/12/2021</t>
         </is>
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N452" t="inlineStr"/>
@@ -38069,46 +38285,46 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D453" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Lorenzo Musetti</t>
+          <t>Daniil Medvedev</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>Miomir Kecmanovic</t>
+          <t>Jan Lennard Struff</t>
         </is>
       </c>
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>italy</t>
+          <t>russian tennis federation (rtf)</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>serbia</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>04/12/2021</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>04/12/2021</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N453" t="inlineStr"/>
@@ -38130,46 +38346,54 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D454" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr"/>
+          <t>Aslan Karatsev</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Karen Khachanov</t>
+        </is>
+      </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
-      <c r="H454" t="inlineStr"/>
+          <t>Kevin Krawietz</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Tim Puetz</t>
+        </is>
+      </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>italy</t>
+          <t>russian tennis federation (rtf)</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>serbia</t>
+          <t>germany</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>04/12/2021</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>04/12/2021</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N454" t="inlineStr"/>
@@ -38191,34 +38415,26 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D455" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>Lorenzo Sonego</t>
-        </is>
-      </c>
+          <t>Borna Gojo</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>Novak Djokovic</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>Miomir Kecmanovic</t>
-        </is>
-      </c>
+          <t>Dusan Lajovic</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>italy</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -38228,17 +38444,17 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N455" t="inlineStr"/>
@@ -38256,50 +38472,50 @@
       <c r="A456" t="inlineStr"/>
       <c r="B456" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D456" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Alexei Popyrin</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>Matteo Arnaldi</t>
+          <t>Novak Djokovic</t>
         </is>
       </c>
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>australia</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>italy</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N456" t="inlineStr"/>
@@ -38317,50 +38533,58 @@
       <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D457" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Alex De Minaur</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr"/>
+          <t>Nikola Mektic</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
-        </is>
-      </c>
-      <c r="H457" t="inlineStr"/>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Filip Krajinovic</t>
+        </is>
+      </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>australia</t>
+          <t>croatia</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>italy</t>
+          <t>serbia</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaga</t>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
         </is>
       </c>
       <c r="N457" t="inlineStr"/>
@@ -38373,6 +38597,2388 @@
       <c r="Q457" t="inlineStr"/>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Borna Gojo</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>russian tennis federation (rtf)</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>05/12/2021</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>05/12/2021</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr"/>
+      <c r="O458" t="inlineStr"/>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr"/>
+      <c r="R458" t="inlineStr"/>
+      <c r="S458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>2</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Daniil Medvedev</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>russian tennis federation (rtf)</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>05/12/2021</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>05/12/2021</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madrid/Innsbruck/Turin</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q459" t="inlineStr"/>
+      <c r="R459" t="inlineStr"/>
+      <c r="S459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Lorenzo Sonego</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Franklin Tiafoe</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr"/>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q460" t="inlineStr"/>
+      <c r="R460" t="inlineStr"/>
+      <c r="S460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>2</v>
+      </c>
+      <c r="D461" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Lorenzo Musetti</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Taylor Fritz</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr"/>
+      <c r="S461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>3</v>
+      </c>
+      <c r="D462" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Simone Bolelli</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Fabio Fognini</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Tommy Paul</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Jack Sock</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr"/>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr"/>
+      <c r="R462" t="inlineStr"/>
+      <c r="S462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>1</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Jan Lennard Struff</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr"/>
+      <c r="O463" t="inlineStr"/>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr"/>
+      <c r="R463" t="inlineStr"/>
+      <c r="S463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr"/>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>2</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Oscar Otte</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Felix Auger Aliassime</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr"/>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr"/>
+      <c r="S464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>3</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Kevin Krawietz</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Tim Puetz</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr"/>
+      <c r="O465" t="inlineStr"/>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr"/>
+      <c r="R465" t="inlineStr"/>
+      <c r="S465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>1</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Jordan Thompson</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Tallon Griekspoor</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>22/11/2022</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>22/11/2022</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr"/>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr"/>
+      <c r="R466" t="inlineStr"/>
+      <c r="S466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>2</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Botic Van De Zandschulp</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>22/11/2022</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>22/11/2022</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr"/>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q467" t="inlineStr"/>
+      <c r="R467" t="inlineStr"/>
+      <c r="S467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>1</v>
+      </c>
+      <c r="D468" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Borna Coric</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Roberto Bautista Agut</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr"/>
+      <c r="O468" t="inlineStr"/>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr"/>
+      <c r="R468" t="inlineStr"/>
+      <c r="S468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>2</v>
+      </c>
+      <c r="D469" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Pablo Carreno Busta</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr"/>
+      <c r="O469" t="inlineStr"/>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q469" t="inlineStr"/>
+      <c r="R469" t="inlineStr"/>
+      <c r="S469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+      <c r="D470" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Lorenzo Sonego</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>26/11/2022</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>26/11/2022</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr"/>
+      <c r="O470" t="inlineStr"/>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q470" t="inlineStr"/>
+      <c r="R470" t="inlineStr"/>
+      <c r="S470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr"/>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>2</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Lorenzo Musetti</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Felix Auger Aliassime</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>26/11/2022</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>26/11/2022</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr"/>
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q471" t="inlineStr"/>
+      <c r="R471" t="inlineStr"/>
+      <c r="S471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>3</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Matteo Berrettini</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Fabio Fognini</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Felix Auger Aliassime</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>26/11/2022</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>26/11/2022</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr"/>
+      <c r="O472" t="inlineStr"/>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q472" t="inlineStr"/>
+      <c r="R472" t="inlineStr"/>
+      <c r="S472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Thanasi Kokkinakis</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Borna Coric</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>25/11/2022</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>25/11/2022</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr"/>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q473" t="inlineStr"/>
+      <c r="R473" t="inlineStr"/>
+      <c r="S473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>2</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>25/11/2022</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>25/11/2022</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr"/>
+      <c r="O474" t="inlineStr"/>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q474" t="inlineStr"/>
+      <c r="R474" t="inlineStr"/>
+      <c r="S474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>3</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Max Purcell</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Jordan Thompson</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Nikola Mektic</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>25/11/2022</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>25/11/2022</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr"/>
+      <c r="O475" t="inlineStr"/>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q475" t="inlineStr"/>
+      <c r="R475" t="inlineStr"/>
+      <c r="S475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>1</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Thanasi Kokkinakis</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>27/11/2022</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>27/11/2022</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr"/>
+      <c r="O476" t="inlineStr"/>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr"/>
+      <c r="S476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>2</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Felix Auger Aliassime</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>27/11/2022</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>27/11/2022</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr"/>
+      <c r="O477" t="inlineStr"/>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard, Indoor</t>
+        </is>
+      </c>
+      <c r="Q477" t="inlineStr"/>
+      <c r="R477" t="inlineStr"/>
+      <c r="S477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Milos Raonic</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Patrick Kaukovalta</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>finland</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr"/>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q478" t="inlineStr"/>
+      <c r="R478" t="inlineStr"/>
+      <c r="S478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>2</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Gabriel Diallo</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Otto Virtanen</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>finland</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr"/>
+      <c r="O479" t="inlineStr"/>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q479" t="inlineStr"/>
+      <c r="R479" t="inlineStr"/>
+      <c r="S479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>3</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Alexis Galarneau</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Harri Heliovaara</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Otto Virtanen</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>finland</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr"/>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q480" t="inlineStr"/>
+      <c r="R480" t="inlineStr"/>
+      <c r="S480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>1</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Tomas Machac</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Jordan Thompson</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>czechia</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr"/>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q481" t="inlineStr"/>
+      <c r="R481" t="inlineStr"/>
+      <c r="S481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Jiri Lehecka</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>czechia</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q482" t="inlineStr"/>
+      <c r="R482" t="inlineStr"/>
+      <c r="S482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr"/>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>3</v>
+      </c>
+      <c r="D483" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Jiri Lehecka</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Adam Pavlasek</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Matthew Ebden</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Max Purcell</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>czechia</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr"/>
+      <c r="S483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>1</v>
+      </c>
+      <c r="D484" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Matteo Arnaldi</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Botic Van De Zandschulp</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr"/>
+      <c r="O484" t="inlineStr"/>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q484" t="inlineStr"/>
+      <c r="R484" t="inlineStr"/>
+      <c r="S484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>2</v>
+      </c>
+      <c r="D485" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Jannik Sinner</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Tallon Griekspoor</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr"/>
+      <c r="O485" t="inlineStr"/>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q485" t="inlineStr"/>
+      <c r="R485" t="inlineStr"/>
+      <c r="S485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>3</v>
+      </c>
+      <c r="D486" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Jannik Sinner</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Lorenzo Sonego</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Tallon Griekspoor</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Wesley Koolhof</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr"/>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q486" t="inlineStr"/>
+      <c r="R486" t="inlineStr"/>
+      <c r="S486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr"/>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>1</v>
+      </c>
+      <c r="D487" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Miomir Kecmanovic</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Jack Draper</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>great britain</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr"/>
+      <c r="O487" t="inlineStr"/>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q487" t="inlineStr"/>
+      <c r="R487" t="inlineStr"/>
+      <c r="S487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>FINALS  QUARTER-FINAL</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>2</v>
+      </c>
+      <c r="D488" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Cameron Norrie</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>great britain</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q488" t="inlineStr"/>
+      <c r="R488" t="inlineStr"/>
+      <c r="S488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>1</v>
+      </c>
+      <c r="D489" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Otto Virtanen</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Alexei Popyrin</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>finland</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>24/11/2023</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>24/11/2023</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr"/>
+      <c r="O489" t="inlineStr"/>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q489" t="inlineStr"/>
+      <c r="R489" t="inlineStr"/>
+      <c r="S489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr"/>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>2</v>
+      </c>
+      <c r="D490" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Emil Ruusuvuori</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>finland</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>24/11/2023</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>24/11/2023</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr"/>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q490" t="inlineStr"/>
+      <c r="R490" t="inlineStr"/>
+      <c r="S490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr"/>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>1</v>
+      </c>
+      <c r="D491" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Lorenzo Musetti</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Miomir Kecmanovic</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>25/11/2023</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>25/11/2023</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr"/>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q491" t="inlineStr"/>
+      <c r="R491" t="inlineStr"/>
+      <c r="S491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr"/>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>2</v>
+      </c>
+      <c r="D492" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Jannik Sinner</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>25/11/2023</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>25/11/2023</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr"/>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q492" t="inlineStr"/>
+      <c r="R492" t="inlineStr"/>
+      <c r="S492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr"/>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>3</v>
+      </c>
+      <c r="D493" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Jannik Sinner</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Lorenzo Sonego</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Miomir Kecmanovic</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>25/11/2023</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>25/11/2023</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr"/>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q493" t="inlineStr"/>
+      <c r="R493" t="inlineStr"/>
+      <c r="S493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+      <c r="D494" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Alexei Popyrin</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Matteo Arnaldi</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>26/11/2023</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>26/11/2023</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr"/>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q494" t="inlineStr"/>
+      <c r="R494" t="inlineStr"/>
+      <c r="S494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>2</v>
+      </c>
+      <c r="D495" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Alex De Minaur</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>Jannik Sinner</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>26/11/2023</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>26/11/2023</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaga</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr"/>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="Q495" t="inlineStr"/>
+      <c r="R495" t="inlineStr"/>
+      <c r="S495" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
